--- a/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE5B863-BCF7-4BE3-B609-4F127BF2CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AA96D6-24C4-4582-8B11-7499F21F5E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54E88726-9F28-4CD9-8127-107047887DE8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C4D0E99-9370-463C-818F-1CF51288B98A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>10,35%</t>
+    <t>10,29%</t>
   </si>
   <si>
     <t>12,97%</t>
@@ -107,19 +107,19 @@
     <t>87,73%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>89,03%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>88,46%</t>
@@ -128,7 +128,7 @@
     <t>87,03%</t>
   </si>
   <si>
-    <t>89,65%</t>
+    <t>89,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>1,69%</t>
@@ -152,31 +152,31 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,58%</t>
+    <t>97,52%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -185,10 +185,10 @@
     <t>97,98%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,715 +197,739 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>98,78%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>96,33%</t>
+    <t>96,32%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>5,89%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D208D9-A513-4E98-AEF8-B0D9E187E4A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB4803A-BA48-4C87-876D-63F7925BE584}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1784,10 +1808,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1826,13 @@
         <v>540072</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -1817,13 +1841,13 @@
         <v>468633</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>962</v>
@@ -1832,13 +1856,13 @@
         <v>1008705</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1930,13 @@
         <v>177307</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -1921,13 +1945,13 @@
         <v>178944</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -1936,13 +1960,13 @@
         <v>356251</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,16 +1978,16 @@
         <v>3029</v>
       </c>
       <c r="D14" s="7">
-        <v>3098218</v>
+        <v>3098219</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3125</v>
@@ -1972,28 +1996,28 @@
         <v>3200254</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6154</v>
       </c>
       <c r="N14" s="7">
-        <v>6298471</v>
+        <v>6298472</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +2029,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2059,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2049,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0C6C4F-E2B5-4CBE-BEF3-EC9FF496A6D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FEEF4-345C-457A-80F8-F11B6EC64268}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2216,13 @@
         <v>125275</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>135</v>
@@ -2207,13 +2231,13 @@
         <v>143793</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>249</v>
@@ -2222,13 +2246,13 @@
         <v>269068</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2267,13 @@
         <v>847377</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
@@ -2258,13 +2282,13 @@
         <v>1188739</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1900</v>
@@ -2273,13 +2297,13 @@
         <v>2036116</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2371,13 @@
         <v>46232</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2362,13 +2386,13 @@
         <v>23344</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2377,13 +2401,13 @@
         <v>69576</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2422,13 @@
         <v>1913790</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1611</v>
@@ -2413,13 +2437,13 @@
         <v>1731560</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3419</v>
@@ -2428,13 +2452,13 @@
         <v>3645350</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2526,13 @@
         <v>8981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2517,13 +2541,13 @@
         <v>2215</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2532,13 +2556,13 @@
         <v>11196</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2577,13 @@
         <v>471351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -2735,7 +2759,7 @@
         <v>6157</v>
       </c>
       <c r="N14" s="7">
-        <v>6608257</v>
+        <v>6608256</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>154</v>
@@ -2786,7 +2810,7 @@
         <v>6481</v>
       </c>
       <c r="N15" s="7">
-        <v>6958097</v>
+        <v>6958096</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2800,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2037060D-28EE-4C4C-8B13-584E14FECE34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52D8DD9-D312-42FE-9402-E457E999686B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3128,13 +3152,13 @@
         <v>137860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3173,13 @@
         <v>1987716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1865</v>
@@ -3164,13 +3188,13 @@
         <v>1939110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>3733</v>
@@ -3179,13 +3203,13 @@
         <v>3926825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3277,13 @@
         <v>17198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3268,13 +3292,13 @@
         <v>14777</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3283,13 +3307,13 @@
         <v>31974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3328,13 @@
         <v>529688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3319,13 +3343,13 @@
         <v>534363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>999</v>
@@ -3334,13 +3358,13 @@
         <v>1064052</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3432,13 @@
         <v>203100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -3423,13 +3447,13 @@
         <v>189558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -3438,13 +3462,13 @@
         <v>392658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3483,13 @@
         <v>3174518</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>3165</v>
@@ -3474,13 +3498,13 @@
         <v>3342542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>6177</v>
@@ -3489,13 +3513,13 @@
         <v>6517060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57ADD7-36AB-4865-B6F3-5D6AC8F07E25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9455CC4-F642-497B-8B45-5CFA80BACA92}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3718,13 @@
         <v>83483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -3709,13 +3733,13 @@
         <v>132987</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>351</v>
@@ -3724,13 +3748,13 @@
         <v>216470</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3769,13 @@
         <v>457080</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>1190</v>
@@ -3760,13 +3784,13 @@
         <v>698225</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1762</v>
@@ -3775,13 +3799,13 @@
         <v>1155305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3873,13 @@
         <v>89271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -3864,13 +3888,13 @@
         <v>52854</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
@@ -3879,13 +3903,13 @@
         <v>142125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,28 +3924,28 @@
         <v>2072751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2831</v>
       </c>
       <c r="I8" s="7">
-        <v>2195942</v>
+        <v>2195941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>4711</v>
@@ -3930,13 +3954,13 @@
         <v>4268692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3987,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4004,13 +4028,13 @@
         <v>26199</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4019,13 +4043,13 @@
         <v>13498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4034,13 +4058,13 @@
         <v>39697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4079,13 @@
         <v>646840</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
@@ -4070,13 +4094,13 @@
         <v>700388</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
@@ -4085,13 +4109,13 @@
         <v>1347229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4183,13 @@
         <v>198953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>345</v>
@@ -4174,13 +4198,13 @@
         <v>199339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>615</v>
@@ -4189,13 +4213,13 @@
         <v>398292</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,43 +4234,43 @@
         <v>3176671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>5002</v>
       </c>
       <c r="I14" s="7">
-        <v>3594554</v>
+        <v>3594555</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>8095</v>
       </c>
       <c r="N14" s="7">
-        <v>6771225</v>
+        <v>6771226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,7 +4297,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3793893</v>
+        <v>3793894</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4288,7 +4312,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7169517</v>
+        <v>7169518</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4302,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13AA96D6-24C4-4582-8B11-7499F21F5E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{798F9B29-BBC1-4152-90CA-B09BCB52AF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C4D0E99-9370-463C-818F-1CF51288B98A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC216B56-DC87-43BD-84AC-C962CD446AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>10,36%</t>
+    <t>10,41%</t>
   </si>
   <si>
     <t>14,31%</t>
@@ -86,19 +86,19 @@
     <t>10,97%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>85,69%</t>
   </si>
   <si>
-    <t>89,64%</t>
+    <t>89,59%</t>
   </si>
   <si>
     <t>89,03%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,25 +140,25 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>2,56%</t>
@@ -167,19 +167,19 @@
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>97,98%</t>
@@ -188,7 +188,7 @@
     <t>97,44%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,16 +197,16 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>3,37%</t>
@@ -215,697 +215,685 @@
     <t>1,86%</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
   </si>
   <si>
     <t>93,26%</t>
@@ -1341,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB4803A-BA48-4C87-876D-63F7925BE584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704B5AC6-A34B-4B38-9638-DFB2E8F180D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1808,10 +1796,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1814,13 @@
         <v>540072</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>445</v>
@@ -1841,13 +1829,13 @@
         <v>468633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>962</v>
@@ -1856,13 +1844,13 @@
         <v>1008705</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1918,13 @@
         <v>177307</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -1945,13 +1933,13 @@
         <v>178944</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>356</v>
@@ -1960,13 +1948,13 @@
         <v>356251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,16 +1966,16 @@
         <v>3029</v>
       </c>
       <c r="D14" s="7">
-        <v>3098219</v>
+        <v>3098218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3125</v>
@@ -1996,13 +1984,13 @@
         <v>3200254</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6154</v>
@@ -2011,13 +1999,13 @@
         <v>6298472</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2017,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2061,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FEEF4-345C-457A-80F8-F11B6EC64268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE1880B-1679-4CFC-952E-E12DAA66817D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,7 +2097,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2216,13 +2204,13 @@
         <v>125275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>135</v>
@@ -2231,13 +2219,13 @@
         <v>143793</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>249</v>
@@ -2246,13 +2234,13 @@
         <v>269068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2255,13 @@
         <v>847377</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
@@ -2282,13 +2270,13 @@
         <v>1188739</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1900</v>
@@ -2297,13 +2285,13 @@
         <v>2036116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2359,13 @@
         <v>46232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2386,13 +2374,13 @@
         <v>23344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -2401,13 +2389,13 @@
         <v>69576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,43 +2410,43 @@
         <v>1913790</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1611</v>
       </c>
       <c r="I8" s="7">
-        <v>1731560</v>
+        <v>1731561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3419</v>
       </c>
       <c r="N8" s="7">
-        <v>3645350</v>
+        <v>3645351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2473,7 @@
         <v>1632</v>
       </c>
       <c r="I9" s="7">
-        <v>1754904</v>
+        <v>1754905</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2500,7 +2488,7 @@
         <v>3484</v>
       </c>
       <c r="N9" s="7">
-        <v>3714926</v>
+        <v>3714927</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2526,13 +2514,13 @@
         <v>8981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2541,13 +2529,13 @@
         <v>2215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2577,13 +2565,13 @@
         <v>471351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -2592,13 +2580,13 @@
         <v>455439</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>838</v>
@@ -2607,13 +2595,13 @@
         <v>926790</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2669,13 @@
         <v>180488</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -2696,13 +2684,13 @@
         <v>169352</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
@@ -2711,13 +2699,13 @@
         <v>349840</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2720,13 @@
         <v>3232518</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>3127</v>
@@ -2747,13 +2735,13 @@
         <v>3375739</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6157</v>
@@ -2762,13 +2750,13 @@
         <v>6608256</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,7 +2812,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52D8DD9-D312-42FE-9402-E457E999686B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F545EE-B77D-4F4B-A4D6-706CF906B386}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2955,13 @@
         <v>97233</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -2982,13 +2970,13 @@
         <v>125591</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>209</v>
@@ -2997,13 +2985,13 @@
         <v>222824</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3006,13 @@
         <v>657114</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>787</v>
@@ -3033,13 +3021,13 @@
         <v>869069</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1445</v>
@@ -3048,13 +3036,13 @@
         <v>1526183</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3110,13 @@
         <v>88669</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3137,13 +3125,13 @@
         <v>49190</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>127</v>
@@ -3152,13 +3140,13 @@
         <v>137860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3161,13 @@
         <v>1987716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>1865</v>
@@ -3188,13 +3176,13 @@
         <v>1939110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>3733</v>
@@ -3203,13 +3191,13 @@
         <v>3926825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3265,13 @@
         <v>17198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3292,13 +3280,13 @@
         <v>14777</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3307,13 +3295,13 @@
         <v>31974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3316,13 @@
         <v>529688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3343,13 +3331,13 @@
         <v>534363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>999</v>
@@ -3358,13 +3346,13 @@
         <v>1064052</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3420,13 @@
         <v>203100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -3447,13 +3435,13 @@
         <v>189558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -3462,13 +3450,13 @@
         <v>392658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3471,13 @@
         <v>3174518</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>3165</v>
@@ -3498,13 +3486,13 @@
         <v>3342542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>6177</v>
@@ -3513,13 +3501,13 @@
         <v>6517060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,7 +3563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3594,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9455CC4-F642-497B-8B45-5CFA80BACA92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC457827-FD0A-4A14-B745-76969CEF3730}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3706,13 @@
         <v>83483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -3733,13 +3721,13 @@
         <v>132987</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>351</v>
@@ -3748,13 +3736,13 @@
         <v>216470</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3757,13 @@
         <v>457080</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>1190</v>
@@ -3784,13 +3772,13 @@
         <v>698225</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1762</v>
@@ -3799,13 +3787,13 @@
         <v>1155305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3861,13 @@
         <v>89271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -3888,13 +3876,13 @@
         <v>52854</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
@@ -3903,13 +3891,13 @@
         <v>142125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3912,13 @@
         <v>2072751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2831</v>
@@ -3939,13 +3927,13 @@
         <v>2195941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4711</v>
@@ -3954,13 +3942,13 @@
         <v>4268692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4016,13 @@
         <v>26199</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4043,13 +4031,13 @@
         <v>13498</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4058,13 +4046,13 @@
         <v>39697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4067,13 @@
         <v>646840</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
@@ -4094,13 +4082,13 @@
         <v>700388</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
@@ -4109,13 +4097,13 @@
         <v>1347229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4171,13 @@
         <v>198953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>345</v>
@@ -4198,13 +4186,13 @@
         <v>199339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>615</v>
@@ -4213,13 +4201,13 @@
         <v>398292</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4222,13 @@
         <v>3176671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>5002</v>
@@ -4249,13 +4237,13 @@
         <v>3594555</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>8095</v>
@@ -4264,13 +4252,13 @@
         <v>6771226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4314,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{798F9B29-BBC1-4152-90CA-B09BCB52AF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{929DE760-6417-46DD-8288-00AE8C45C75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC216B56-DC87-43BD-84AC-C962CD446AB7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A0F60CC-A33D-449C-AC23-457612379C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,73%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>89,03%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>97,67%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,670 +197,658 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>98,77%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>96,32%</t>
+    <t>96,33%</t>
   </si>
   <si>
     <t>97,84%</t>
@@ -869,10 +857,10 @@
     <t>5,89%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>5,25%</t>
@@ -887,19 +875,19 @@
     <t>5,56%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>94,75%</t>
@@ -914,10 +902,10 @@
     <t>94,44%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704B5AC6-A34B-4B38-9638-DFB2E8F180D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53192B07-EDF0-4E11-B166-4A3E4093EEA0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1996,7 +1984,7 @@
         <v>6154</v>
       </c>
       <c r="N14" s="7">
-        <v>6298472</v>
+        <v>6298471</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2047,7 +2035,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2080,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE1880B-1679-4CFC-952E-E12DAA66817D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BC010B-4B5E-4465-88F9-CED29CE90B79}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2422,7 +2410,7 @@
         <v>1611</v>
       </c>
       <c r="I8" s="7">
-        <v>1731561</v>
+        <v>1731560</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2437,7 +2425,7 @@
         <v>3419</v>
       </c>
       <c r="N8" s="7">
-        <v>3645351</v>
+        <v>3645350</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2473,7 +2461,7 @@
         <v>1632</v>
       </c>
       <c r="I9" s="7">
-        <v>1754905</v>
+        <v>1754904</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2488,7 +2476,7 @@
         <v>3484</v>
       </c>
       <c r="N9" s="7">
-        <v>3714927</v>
+        <v>3714926</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2517,10 +2505,10 @@
         <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2535,7 +2523,7 @@
         <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2544,13 +2532,13 @@
         <v>11196</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,10 +2556,10 @@
         <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -2580,13 +2568,13 @@
         <v>455439</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>838</v>
@@ -2595,13 +2583,13 @@
         <v>926790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2657,13 @@
         <v>180488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -2684,13 +2672,13 @@
         <v>169352</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>324</v>
@@ -2699,13 +2687,13 @@
         <v>349840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2708,13 @@
         <v>3232518</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>3127</v>
@@ -2735,28 +2723,28 @@
         <v>3375739</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6157</v>
       </c>
       <c r="N14" s="7">
-        <v>6608256</v>
+        <v>6608257</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,7 +2786,7 @@
         <v>6481</v>
       </c>
       <c r="N15" s="7">
-        <v>6958096</v>
+        <v>6958097</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2831,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F545EE-B77D-4F4B-A4D6-706CF906B386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC7282-DF56-424A-979F-E8773B8D3CE1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2943,13 @@
         <v>97233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>105</v>
@@ -2970,13 +2958,13 @@
         <v>125591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>209</v>
@@ -2985,13 +2973,13 @@
         <v>222824</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2994,13 @@
         <v>657114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>787</v>
@@ -3021,13 +3009,13 @@
         <v>869069</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1445</v>
@@ -3036,13 +3024,13 @@
         <v>1526183</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3098,13 @@
         <v>88669</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3125,13 +3113,13 @@
         <v>49190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>127</v>
@@ -3140,13 +3128,13 @@
         <v>137860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3149,13 @@
         <v>1987716</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>1865</v>
@@ -3176,13 +3164,13 @@
         <v>1939110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>3733</v>
@@ -3191,13 +3179,13 @@
         <v>3926825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3253,13 @@
         <v>17198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3280,13 +3268,13 @@
         <v>14777</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -3295,13 +3283,13 @@
         <v>31974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3304,13 @@
         <v>529688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>513</v>
@@ -3331,13 +3319,13 @@
         <v>534363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>999</v>
@@ -3346,13 +3334,13 @@
         <v>1064052</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3408,13 @@
         <v>203100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>161</v>
@@ -3435,13 +3423,13 @@
         <v>189558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>364</v>
@@ -3450,13 +3438,13 @@
         <v>392658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3459,13 @@
         <v>3174518</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>3165</v>
@@ -3486,13 +3474,13 @@
         <v>3342542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>6177</v>
@@ -3501,13 +3489,13 @@
         <v>6517060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC457827-FD0A-4A14-B745-76969CEF3730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FB8395-80A0-4B2A-BC8E-03DE2919C075}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3694,13 @@
         <v>83483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -3721,13 +3709,13 @@
         <v>132987</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>351</v>
@@ -3736,13 +3724,13 @@
         <v>216470</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3745,13 @@
         <v>457080</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>1190</v>
@@ -3772,13 +3760,13 @@
         <v>698225</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>1762</v>
@@ -3787,13 +3775,13 @@
         <v>1155305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3849,13 @@
         <v>89271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -3876,13 +3864,13 @@
         <v>52854</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>201</v>
@@ -3891,13 +3879,13 @@
         <v>142125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,22 +3900,22 @@
         <v>2072751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>2831</v>
       </c>
       <c r="I8" s="7">
-        <v>2195941</v>
+        <v>2195942</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>252</v>
@@ -3975,7 +3963,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4019,10 +4007,10 @@
         <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -4031,13 +4019,13 @@
         <v>13498</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4046,13 +4034,13 @@
         <v>39697</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4055,13 @@
         <v>646840</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
@@ -4082,13 +4070,13 @@
         <v>700388</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
@@ -4097,13 +4085,13 @@
         <v>1347229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4159,13 @@
         <v>198953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>345</v>
@@ -4186,13 +4174,13 @@
         <v>199339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>615</v>
@@ -4201,13 +4189,13 @@
         <v>398292</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,43 +4210,43 @@
         <v>3176671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>5002</v>
       </c>
       <c r="I14" s="7">
-        <v>3594555</v>
+        <v>3594554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>8095</v>
       </c>
       <c r="N14" s="7">
-        <v>6771226</v>
+        <v>6771225</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4273,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3793894</v>
+        <v>3793893</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4300,7 +4288,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7169518</v>
+        <v>7169517</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{929DE760-6417-46DD-8288-00AE8C45C75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5604062-CEF1-4AE6-B720-B1AD0525ACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A0F60CC-A33D-449C-AC23-457612379C1A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8856C2DC-A93A-4DA5-ADC2-17F59FF4B535}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -716,196 +716,202 @@
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53192B07-EDF0-4E11-B166-4A3E4093EEA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC5D47C-9369-4285-8696-3D4406AAF498}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1525,7 @@
         <v>2056</v>
       </c>
       <c r="N5" s="7">
-        <v>2076013</v>
+        <v>2076012</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1570,7 +1576,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1674,7 +1680,7 @@
         <v>3136</v>
       </c>
       <c r="N8" s="7">
-        <v>3213755</v>
+        <v>3213754</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1725,7 +1731,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1969,7 +1975,7 @@
         <v>3125</v>
       </c>
       <c r="I14" s="7">
-        <v>3200254</v>
+        <v>3200253</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2020,7 +2026,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BC010B-4B5E-4465-88F9-CED29CE90B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C787001-78BB-4F77-9540-C9305692DF66}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2410,7 +2416,7 @@
         <v>1611</v>
       </c>
       <c r="I8" s="7">
-        <v>1731560</v>
+        <v>1731561</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2425,7 +2431,7 @@
         <v>3419</v>
       </c>
       <c r="N8" s="7">
-        <v>3645350</v>
+        <v>3645351</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2461,7 +2467,7 @@
         <v>1632</v>
       </c>
       <c r="I9" s="7">
-        <v>1754904</v>
+        <v>1754905</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2476,7 +2482,7 @@
         <v>3484</v>
       </c>
       <c r="N9" s="7">
-        <v>3714926</v>
+        <v>3714927</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2819,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC7282-DF56-424A-979F-E8773B8D3CE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8EF7A2-8934-4291-A72D-7CD578645DBD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3331,7 +3337,7 @@
         <v>999</v>
       </c>
       <c r="N11" s="7">
-        <v>1064052</v>
+        <v>1064053</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>67</v>
@@ -3382,7 +3388,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3570,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FB8395-80A0-4B2A-BC8E-03DE2919C075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E31D5-3129-4B56-89BB-98E2750DB211}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3691,7 +3697,7 @@
         <v>118</v>
       </c>
       <c r="D4" s="7">
-        <v>83483</v>
+        <v>78207</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>225</v>
@@ -3706,7 +3712,7 @@
         <v>233</v>
       </c>
       <c r="I4" s="7">
-        <v>132987</v>
+        <v>118640</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>228</v>
@@ -3721,7 +3727,7 @@
         <v>351</v>
       </c>
       <c r="N4" s="7">
-        <v>216470</v>
+        <v>196847</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>231</v>
@@ -3742,7 +3748,7 @@
         <v>572</v>
       </c>
       <c r="D5" s="7">
-        <v>457080</v>
+        <v>435735</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>234</v>
@@ -3757,7 +3763,7 @@
         <v>1190</v>
       </c>
       <c r="I5" s="7">
-        <v>698225</v>
+        <v>632810</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>237</v>
@@ -3772,7 +3778,7 @@
         <v>1762</v>
       </c>
       <c r="N5" s="7">
-        <v>1155305</v>
+        <v>1068545</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>240</v>
@@ -3793,7 +3799,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3814,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831212</v>
+        <v>751450</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3823,7 +3829,7 @@
         <v>2113</v>
       </c>
       <c r="N6" s="7">
-        <v>1371775</v>
+        <v>1265392</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3846,28 +3852,28 @@
         <v>112</v>
       </c>
       <c r="D7" s="7">
-        <v>89271</v>
+        <v>83388</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
       </c>
       <c r="I7" s="7">
-        <v>52854</v>
+        <v>48148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>246</v>
@@ -3876,7 +3882,7 @@
         <v>201</v>
       </c>
       <c r="N7" s="7">
-        <v>142125</v>
+        <v>131536</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>247</v>
@@ -3897,37 +3903,37 @@
         <v>1880</v>
       </c>
       <c r="D8" s="7">
-        <v>2072751</v>
+        <v>2206939</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>2831</v>
       </c>
       <c r="I8" s="7">
-        <v>2195942</v>
+        <v>2188997</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
         <v>4711</v>
       </c>
       <c r="N8" s="7">
-        <v>4268692</v>
+        <v>4395936</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>254</v>
@@ -3948,7 +3954,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3963,7 +3969,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3978,7 +3984,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4001,46 +4007,46 @@
         <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>26199</v>
+        <v>24959</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>13498</v>
+        <v>12741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>39697</v>
+        <v>37700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,46 +4058,46 @@
         <v>641</v>
       </c>
       <c r="D11" s="7">
-        <v>646840</v>
+        <v>621664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>981</v>
       </c>
       <c r="I11" s="7">
-        <v>700388</v>
+        <v>647722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
       </c>
       <c r="N11" s="7">
-        <v>1347229</v>
+        <v>1269386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4109,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4118,7 +4124,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4133,7 +4139,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4156,46 +4162,46 @@
         <v>270</v>
       </c>
       <c r="D13" s="7">
-        <v>198953</v>
+        <v>186554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>345</v>
       </c>
       <c r="I13" s="7">
-        <v>199339</v>
+        <v>179530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>615</v>
       </c>
       <c r="N13" s="7">
-        <v>398292</v>
+        <v>366084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,46 +4213,46 @@
         <v>3093</v>
       </c>
       <c r="D14" s="7">
-        <v>3176671</v>
+        <v>3264338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>5002</v>
       </c>
       <c r="I14" s="7">
-        <v>3594554</v>
+        <v>3469528</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>8095</v>
       </c>
       <c r="N14" s="7">
-        <v>6771225</v>
+        <v>6733867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4264,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375624</v>
+        <v>3450892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4273,7 +4279,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3793893</v>
+        <v>3649058</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4288,7 +4294,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7169517</v>
+        <v>7099951</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
